--- a/Logs/No_Middleware/Baseline_exp/Baseline.xlsx
+++ b/Logs/No_Middleware/Baseline_exp/Baseline.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iva/Desktop/ETH/Fall 2016/Advanced Systems Lab/project/gitlab_repo/asl-fall16-project/Logs/baseline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iva/Desktop/ETH/Fall 2016/Advanced Systems Lab/project/Milestone 1/Experiments/Csv_Results/baseline_Azure/run_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TPS" sheetId="1" r:id="rId1"/>
-    <sheet name="Response" sheetId="2" r:id="rId2"/>
+    <sheet name="RES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,42 +28,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
-    <t>Result</t>
+    <t>Iteration 1</t>
   </si>
   <si>
-    <t>Avg</t>
+    <t>Iteration 2</t>
   </si>
   <si>
-    <t>Avg-std</t>
+    <t>Iteration 3</t>
   </si>
   <si>
-    <t>Avg+std</t>
+    <t>Iteration 4</t>
   </si>
   <si>
-    <t># of clients</t>
+    <t>Iteration 5</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STEDV</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
   <si>
     <t>AVG Response</t>
   </si>
   <si>
     <t>STDEV</t>
-  </si>
-  <si>
-    <t>iteration 1</t>
-  </si>
-  <si>
-    <t>iteration 2</t>
-  </si>
-  <si>
-    <t>iteration 3</t>
-  </si>
-  <si>
-    <t>iteration 4</t>
-  </si>
-  <si>
-    <t>iteration 5</t>
   </si>
 </sst>
 </file>
@@ -99,9 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -138,9 +131,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -148,22 +144,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Baseline</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Throughput vs # memaslap Clients</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Throughput vs # of memaslap clients</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37107822410148"/>
+          <c:y val="0.0263736263736264"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -177,9 +171,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -200,7 +197,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -223,119 +220,120 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="16"/>
                   <c:pt idx="0">
-                    <c:v>340.5734869305008</c:v>
+                    <c:v>396.8957545754301</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>285.163987908712</c:v>
+                    <c:v>351.8757735337856</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>298.5225284630961</c:v>
+                    <c:v>362.9818728256275</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>374.2668833867084</c:v>
+                    <c:v>231.2076123314282</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>137.6571828856017</c:v>
+                    <c:v>216.044069578408</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>328.2601102784193</c:v>
+                    <c:v>109.9734513416761</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>316.1708398951428</c:v>
+                    <c:v>323.7570694208854</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>324.0396580667249</c:v>
+                    <c:v>245.7673696811682</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>288.2953346830295</c:v>
+                    <c:v>596.4003353453115</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>230.794930620237</c:v>
+                    <c:v>430.282047034268</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>366.2918235505674</c:v>
+                    <c:v>331.3352380897631</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>248.834684077602</c:v>
+                    <c:v>456.0679773893361</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>447.7560719856293</c:v>
+                    <c:v>401.4496730600238</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>693.7511801791763</c:v>
+                    <c:v>343.6169960872134</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>608.9316053548215</c:v>
+                    <c:v>920.9216253297562</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1925.504271613024</c:v>
+                    <c:v>352.7518107678542</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>TPS!$C$21:$C$36</c:f>
+                <c:f>TPS!$B$21:$B$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="16"/>
                   <c:pt idx="0">
-                    <c:v>340.5734869305008</c:v>
+                    <c:v>396.8957545754301</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>285.163987908712</c:v>
+                    <c:v>351.8757735337856</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>298.5225284630961</c:v>
+                    <c:v>362.9818728256275</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>374.2668833867084</c:v>
+                    <c:v>231.2076123314282</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>137.6571828856017</c:v>
+                    <c:v>216.044069578408</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>328.2601102784193</c:v>
+                    <c:v>109.9734513416761</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>316.1708398951428</c:v>
+                    <c:v>323.7570694208854</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>324.0396580667249</c:v>
+                    <c:v>245.7673696811682</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>288.2953346830295</c:v>
+                    <c:v>596.4003353453115</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>230.794930620237</c:v>
+                    <c:v>430.282047034268</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>366.2918235505674</c:v>
+                    <c:v>331.3352380897631</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>248.834684077602</c:v>
+                    <c:v>456.0679773893361</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>447.7560719856293</c:v>
+                    <c:v>401.4496730600238</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>693.7511801791763</c:v>
+                    <c:v>343.6169960872134</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>608.9316053548215</c:v>
+                    <c:v>920.9216253297562</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1925.504271613024</c:v>
+                    <c:v>352.7518107678542</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -345,7 +343,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>TPS!$E$21:$E$36</c:f>
+              <c:f>TPS!$D$21:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -407,52 +405,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9592.4</c:v>
+                  <c:v>13160.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17451.0</c:v>
+                  <c:v>18912.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19994.2</c:v>
+                  <c:v>20773.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21426.2</c:v>
+                  <c:v>23234.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23288.0</c:v>
+                  <c:v>25304.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25154.8</c:v>
+                  <c:v>27211.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26474.0</c:v>
+                  <c:v>28189.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27675.2</c:v>
+                  <c:v>29290.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28579.2</c:v>
+                  <c:v>30350.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29929.6</c:v>
+                  <c:v>31002.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30464.8</c:v>
+                  <c:v>31457.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31007.2</c:v>
+                  <c:v>32670.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31808.0</c:v>
+                  <c:v>33139.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32578.2</c:v>
+                  <c:v>33503.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33265.2</c:v>
+                  <c:v>33575.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36858.2</c:v>
+                  <c:v>34261.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,75 +466,25 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1209907120"/>
-        <c:axId val="1209910240"/>
+        <c:axId val="1726792880"/>
+        <c:axId val="1726411296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1209907120"/>
+        <c:axId val="1726792880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t># of memaslap Clients</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -552,7 +500,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -562,16 +513,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1209910240"/>
+        <c:crossAx val="1726411296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1209910240"/>
+        <c:axId val="1726411296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +531,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -591,64 +541,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Throughput</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00729040097205346"/>
-              <c:y val="0.387340678049339"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -666,7 +559,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -676,7 +572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1209907120"/>
+        <c:crossAx val="1726792880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -698,7 +594,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -746,9 +642,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -756,18 +655,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Baseline</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Average Response Time vs # memaslap Clients</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -785,9 +694,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -808,7 +720,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -826,124 +738,125 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Response!$B$2:$B$17</c:f>
+                <c:f>RES!$B$2:$B$17</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="16"/>
                   <c:pt idx="0">
-                    <c:v>907.555782467391</c:v>
+                    <c:v>499.064799019125</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>936.283511528425</c:v>
+                    <c:v>1153.70398744651</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1605.57019252663</c:v>
+                    <c:v>1787.6774417383</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2316.21617982432</c:v>
+                    <c:v>2082.75950192046</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2548.65779380637</c:v>
+                    <c:v>2344.80740524035</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2649.20625981066</c:v>
+                    <c:v>2443.86622429297</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3080.86112161031</c:v>
+                    <c:v>3468.06393344615</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3472.22435159509</c:v>
+                    <c:v>2860.87215935805</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4503.20821905227</c:v>
+                    <c:v>2949.37192177927</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4009.89206759109</c:v>
+                    <c:v>3269.28924253269</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3805.16250050901</c:v>
+                    <c:v>4184.85024948683</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4838.85552540474</c:v>
+                    <c:v>3587.84215565289</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4923.72405538429</c:v>
+                    <c:v>4572.01453387563</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>5760.73235495453</c:v>
+                    <c:v>3719.42258781655</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>4938.24603323993</c:v>
+                    <c:v>7529.11347119699</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>6650.1815839637</c:v>
+                    <c:v>3767.20714339416</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Response!$B$2:$B$17</c:f>
+                <c:f>RES!$B$2:$B$17</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="16"/>
                   <c:pt idx="0">
-                    <c:v>907.555782467391</c:v>
+                    <c:v>499.064799019125</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>936.283511528425</c:v>
+                    <c:v>1153.70398744651</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1605.57019252663</c:v>
+                    <c:v>1787.6774417383</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2316.21617982432</c:v>
+                    <c:v>2082.75950192046</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2548.65779380637</c:v>
+                    <c:v>2344.80740524035</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2649.20625981066</c:v>
+                    <c:v>2443.86622429297</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3080.86112161031</c:v>
+                    <c:v>3468.06393344615</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3472.22435159509</c:v>
+                    <c:v>2860.87215935805</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4503.20821905227</c:v>
+                    <c:v>2949.37192177927</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4009.89206759109</c:v>
+                    <c:v>3269.28924253269</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3805.16250050901</c:v>
+                    <c:v>4184.85024948683</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4838.85552540474</c:v>
+                    <c:v>3587.84215565289</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4923.72405538429</c:v>
+                    <c:v>4572.01453387563</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>5760.73235495453</c:v>
+                    <c:v>3719.42258781655</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>4938.24603323993</c:v>
+                    <c:v>7529.11347119699</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>6650.1815839637</c:v>
+                    <c:v>3767.20714339416</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -953,7 +866,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Response!$D$2:$D$17</c:f>
+              <c:f>RES!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1010,57 +923,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Response!$A$2:$A$17</c:f>
+              <c:f>RES!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>854.099999999999</c:v>
+                  <c:v>609.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>921.2</c:v>
+                  <c:v>848.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1209.0</c:v>
+                  <c:v>1159.59999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1499.7</c:v>
+                  <c:v>1382.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1724.0</c:v>
+                  <c:v>1585.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1915.09999999999</c:v>
+                  <c:v>1768.59999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2124.09999999999</c:v>
+                  <c:v>1992.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2320.69999999999</c:v>
+                  <c:v>2195.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2527.39999999999</c:v>
+                  <c:v>2380.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2680.8</c:v>
+                  <c:v>2588.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2899.09999999999</c:v>
+                  <c:v>2810.69999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3106.5</c:v>
+                  <c:v>2951.69999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3282.5</c:v>
+                  <c:v>3147.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3454.0</c:v>
+                  <c:v>3354.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3622.19999999999</c:v>
+                  <c:v>3590.89999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3516.0</c:v>
+                  <c:v>3753.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,83 +989,26 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1208090784"/>
-        <c:axId val="1208092976"/>
+        <c:axId val="1834667808"/>
+        <c:axId val="1834549120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1208090784"/>
+        <c:axId val="1834667808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t># memaslap</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                  <a:t> Clients</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="44450" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1164,7 +1020,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1174,7 +1033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1208092976"/>
+        <c:crossAx val="1834549120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1208092976"/>
+        <c:axId val="1834549120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1051,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1202,64 +1061,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Throughput</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0089086859688196"/>
-              <c:y val="0.427849462365591"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1277,7 +1078,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1287,7 +1091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1208090784"/>
+        <c:crossAx val="1834667808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,7 +1113,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1417,27 +1221,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1452,7 +1262,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1460,7 +1270,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1468,14 +1278,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1484,8 +1297,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1508,35 +1322,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1545,32 +1369,36 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1586,16 +1414,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1629,17 +1462,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1648,13 +1481,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1666,20 +1500,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1693,16 +1533,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1711,17 +1552,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1730,16 +1571,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1748,24 +1590,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1773,19 +1618,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1793,17 +1630,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1812,9 +1649,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1823,14 +1663,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1839,7 +1679,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1848,7 +1691,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1869,7 +1712,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1878,34 +1724,46 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1920,7 +1778,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1928,7 +1786,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1936,14 +1794,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1952,8 +1813,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1976,35 +1838,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2013,32 +1885,36 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2054,16 +1930,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2097,17 +1978,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2116,13 +1997,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2134,20 +2016,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2161,16 +2049,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2179,17 +2068,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2198,16 +2087,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2216,24 +2106,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2241,19 +2134,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2261,17 +2146,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2280,9 +2165,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2291,14 +2179,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2307,7 +2195,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2316,7 +2207,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2337,7 +2228,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -2346,8 +2240,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2357,19 +2257,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2392,19 +2292,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2468,9 +2368,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2503,9 +2403,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2685,604 +2585,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>10120</v>
-      </c>
-      <c r="B2" s="2">
-        <v>9446</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9222</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9703</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9471</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>17341</v>
-      </c>
-      <c r="B3" s="2">
-        <v>17226</v>
-      </c>
-      <c r="C3" s="2">
-        <v>17229</v>
-      </c>
-      <c r="D3" s="2">
-        <v>17900</v>
-      </c>
-      <c r="E3" s="2">
-        <v>17559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>20313</v>
-      </c>
-      <c r="B4" s="2">
-        <v>20193</v>
-      </c>
-      <c r="C4" s="2">
-        <v>19840</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20063</v>
-      </c>
-      <c r="E4" s="2">
-        <v>19562</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>21987</v>
-      </c>
-      <c r="B5" s="2">
-        <v>21561</v>
-      </c>
-      <c r="C5" s="2">
-        <v>21356</v>
-      </c>
-      <c r="D5" s="2">
-        <v>21230</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>23150</v>
-      </c>
-      <c r="B6" s="2">
-        <v>23157</v>
-      </c>
-      <c r="C6" s="2">
-        <v>23460</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23285</v>
-      </c>
-      <c r="E6" s="2">
-        <v>23388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>25493</v>
-      </c>
-      <c r="B7" s="2">
-        <v>25048</v>
-      </c>
-      <c r="C7" s="2">
-        <v>25416</v>
-      </c>
-      <c r="D7" s="2">
-        <v>24668</v>
-      </c>
-      <c r="E7" s="2">
-        <v>25149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>26475</v>
-      </c>
-      <c r="B8" s="2">
-        <v>26296</v>
-      </c>
-      <c r="C8" s="2">
-        <v>27021</v>
-      </c>
-      <c r="D8" s="2">
-        <v>26273</v>
-      </c>
-      <c r="E8" s="2">
-        <v>26305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>27864</v>
-      </c>
-      <c r="B9" s="2">
-        <v>27331</v>
-      </c>
-      <c r="C9" s="2">
-        <v>27902</v>
-      </c>
-      <c r="D9" s="2">
-        <v>27965</v>
-      </c>
-      <c r="E9" s="2">
-        <v>27314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>28159</v>
-      </c>
-      <c r="B10" s="2">
-        <v>28411</v>
-      </c>
-      <c r="C10" s="2">
-        <v>28796</v>
-      </c>
-      <c r="D10" s="2">
-        <v>28841</v>
-      </c>
-      <c r="E10" s="2">
-        <v>28689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>29687</v>
-      </c>
-      <c r="B11" s="2">
-        <v>30026</v>
-      </c>
-      <c r="C11" s="2">
-        <v>30111</v>
-      </c>
-      <c r="D11" s="2">
-        <v>29676</v>
-      </c>
-      <c r="E11" s="2">
-        <v>30148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>30245</v>
-      </c>
-      <c r="B12" s="2">
-        <v>31042</v>
-      </c>
-      <c r="C12" s="2">
-        <v>30075</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30518</v>
-      </c>
-      <c r="E12" s="2">
-        <v>30444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>31028</v>
-      </c>
-      <c r="B13" s="2">
-        <v>30720</v>
-      </c>
-      <c r="C13" s="2">
-        <v>30961</v>
-      </c>
-      <c r="D13" s="2">
-        <v>31402</v>
-      </c>
-      <c r="E13" s="2">
-        <v>30925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>31755</v>
-      </c>
-      <c r="B14" s="2">
-        <v>31080</v>
-      </c>
-      <c r="C14" s="2">
-        <v>31859</v>
-      </c>
-      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>13115</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12442</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13638</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13312</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>19206</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19297</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19012</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18332</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>21444</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20530</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20821</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20404</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>23598</v>
+      </c>
+      <c r="B5" s="1">
+        <v>23134</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23408</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23030</v>
+      </c>
+      <c r="E5" s="1">
+        <v>23004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>25241</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25285</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25695</v>
+      </c>
+      <c r="D6" s="1">
+        <v>25271</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>27244</v>
+      </c>
+      <c r="B7" s="1">
+        <v>27099</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27169</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27137</v>
+      </c>
+      <c r="E7" s="1">
+        <v>27410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>27791</v>
+      </c>
+      <c r="B8" s="1">
+        <v>28650</v>
+      </c>
+      <c r="C8" s="1">
+        <v>28393</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27861</v>
+      </c>
+      <c r="E8" s="1">
+        <v>28252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>29429</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29601</v>
+      </c>
+      <c r="C9" s="1">
+        <v>28996</v>
+      </c>
+      <c r="D9" s="1">
+        <v>29421</v>
+      </c>
+      <c r="E9" s="1">
+        <v>29003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>31203</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30519</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30198</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30473</v>
+      </c>
+      <c r="E10" s="1">
+        <v>29358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>31206</v>
+      </c>
+      <c r="B11" s="1">
+        <v>31114</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30951</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31517</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>31868</v>
+      </c>
+      <c r="B12" s="1">
+        <v>31201</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30962</v>
+      </c>
+      <c r="D12" s="1">
+        <v>31554</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>33398</v>
+      </c>
+      <c r="B13" s="1">
+        <v>32514</v>
+      </c>
+      <c r="C13" s="1">
         <v>32180</v>
       </c>
-      <c r="E14" s="2">
-        <v>32166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>32240</v>
-      </c>
-      <c r="B15" s="2">
-        <v>31516</v>
-      </c>
-      <c r="C15" s="2">
-        <v>33027</v>
-      </c>
-      <c r="D15" s="2">
-        <v>32935</v>
-      </c>
-      <c r="E15" s="2">
-        <v>33173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>33144</v>
-      </c>
-      <c r="B16" s="2">
-        <v>33391</v>
-      </c>
-      <c r="C16" s="2">
-        <v>33452</v>
-      </c>
-      <c r="D16" s="2">
-        <v>32333</v>
-      </c>
-      <c r="E16" s="2">
-        <v>34006</v>
+      <c r="D13" s="1">
+        <v>32977</v>
+      </c>
+      <c r="E13" s="1">
+        <v>32281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>33006</v>
+      </c>
+      <c r="B14" s="1">
+        <v>32990</v>
+      </c>
+      <c r="C14" s="1">
+        <v>32655</v>
+      </c>
+      <c r="D14" s="1">
+        <v>33180</v>
+      </c>
+      <c r="E14" s="1">
+        <v>33867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>33379</v>
+      </c>
+      <c r="B15" s="1">
+        <v>33151</v>
+      </c>
+      <c r="C15" s="1">
+        <v>34071</v>
+      </c>
+      <c r="D15" s="1">
+        <v>33209</v>
+      </c>
+      <c r="E15" s="1">
+        <v>33708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>33438</v>
+      </c>
+      <c r="B16" s="1">
+        <v>31947</v>
+      </c>
+      <c r="C16" s="1">
+        <v>34026</v>
+      </c>
+      <c r="D16" s="1">
+        <v>33732</v>
+      </c>
+      <c r="E16" s="1">
+        <v>34734</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>33983</v>
-      </c>
-      <c r="B17" s="2">
-        <v>37427</v>
-      </c>
-      <c r="C17" s="2">
-        <v>36544</v>
-      </c>
-      <c r="D17" s="2">
-        <v>37005</v>
-      </c>
-      <c r="E17" s="2">
-        <v>39332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
+      <c r="A17" s="1">
+        <v>34433</v>
+      </c>
+      <c r="B17" s="1">
+        <v>34238</v>
+      </c>
+      <c r="C17" s="1">
+        <v>33928</v>
+      </c>
+      <c r="D17" s="1">
+        <v>33873</v>
+      </c>
+      <c r="E17" s="1">
+        <v>34836</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <f>AVERAGE(A2:E2)</f>
-        <v>9592.4</v>
+        <v>13160.6</v>
       </c>
       <c r="B21">
-        <f>STDEV(A2:E2)</f>
-        <v>340.57348693050079</v>
-      </c>
-      <c r="C21">
-        <f>STDEV(A2:E2)</f>
-        <v>340.57348693050079</v>
-      </c>
-      <c r="E21">
+        <f>_xlfn.STDEV.P(A2:E2)</f>
+        <v>396.89575457543009</v>
+      </c>
+      <c r="D21">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <f>AVERAGE(A3:E3)</f>
-        <v>17451</v>
+      <c r="A22" s="1">
+        <f t="shared" ref="A22:A36" si="0">AVERAGE(A3:E3)</f>
+        <v>18912.8</v>
       </c>
       <c r="B22">
-        <f>STDEV(A3:E3)</f>
-        <v>285.16398790871193</v>
-      </c>
-      <c r="C22">
-        <f>STDEV(A3:E3)</f>
-        <v>285.16398790871193</v>
-      </c>
-      <c r="E22">
+        <f t="shared" ref="B22:B36" si="1">_xlfn.STDEV.P(A3:E3)</f>
+        <v>351.8757735337856</v>
+      </c>
+      <c r="D22">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <f>AVERAGE(A4:E4)</f>
-        <v>19994.2</v>
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>20773.400000000001</v>
       </c>
       <c r="B23">
-        <f>STDEV(A4:E4)</f>
-        <v>298.52252846309608</v>
-      </c>
-      <c r="C23">
-        <f>STDEV(A4:E4)</f>
-        <v>298.52252846309608</v>
-      </c>
-      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>362.98187282562748</v>
+      </c>
+      <c r="D23">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <f>AVERAGE(A5:E5)</f>
-        <v>21426.2</v>
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23234.799999999999</v>
       </c>
       <c r="B24">
-        <f>STDEV(A5:E5)</f>
-        <v>374.26688338670846</v>
-      </c>
-      <c r="C24">
-        <f>STDEV(A5:E5)</f>
-        <v>374.26688338670846</v>
-      </c>
-      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>231.20761233142821</v>
+      </c>
+      <c r="D24">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <f>AVERAGE(A6:E6)</f>
-        <v>23288</v>
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>25304.400000000001</v>
       </c>
       <c r="B25">
-        <f>STDEV(A6:E6)</f>
-        <v>137.65718288560171</v>
-      </c>
-      <c r="C25">
-        <f>STDEV(A6:E6)</f>
-        <v>137.65718288560171</v>
-      </c>
-      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>216.044069578408</v>
+      </c>
+      <c r="D25">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <f>AVERAGE(A7:E7)</f>
-        <v>25154.799999999999</v>
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>27211.8</v>
       </c>
       <c r="B26">
-        <f>STDEV(A7:E7)</f>
-        <v>328.26011027841929</v>
-      </c>
-      <c r="C26">
-        <f>STDEV(A7:E7)</f>
-        <v>328.26011027841929</v>
-      </c>
-      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>109.9734513416761</v>
+      </c>
+      <c r="D26">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <f>AVERAGE(A8:E8)</f>
-        <v>26474</v>
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>28189.4</v>
       </c>
       <c r="B27">
-        <f>STDEV(A8:E8)</f>
-        <v>316.17083989514276</v>
-      </c>
-      <c r="C27">
-        <f>STDEV(A8:E8)</f>
-        <v>316.17083989514276</v>
-      </c>
-      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>323.75706942088539</v>
+      </c>
+      <c r="D27">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <f>AVERAGE(A9:E9)</f>
-        <v>27675.200000000001</v>
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>29290</v>
       </c>
       <c r="B28">
-        <f>STDEV(A9:E9)</f>
-        <v>324.03965806672488</v>
-      </c>
-      <c r="C28">
-        <f>STDEV(A9:E9)</f>
-        <v>324.03965806672488</v>
-      </c>
-      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>245.76736968116822</v>
+      </c>
+      <c r="D28">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <f>AVERAGE(A10:E10)</f>
-        <v>28579.200000000001</v>
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>30350.2</v>
       </c>
       <c r="B29">
-        <f>STDEV(A10:E10)</f>
-        <v>288.29533468302952</v>
-      </c>
-      <c r="C29">
-        <f>STDEV(A10:E10)</f>
-        <v>288.29533468302952</v>
-      </c>
-      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>596.40033534531153</v>
+      </c>
+      <c r="D29">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <f>AVERAGE(A11:E11)</f>
-        <v>29929.599999999999</v>
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>31002.6</v>
       </c>
       <c r="B30">
-        <f>STDEV(A11:E11)</f>
-        <v>230.79493062023698</v>
-      </c>
-      <c r="C30">
-        <f>STDEV(A11:E11)</f>
-        <v>230.79493062023698</v>
-      </c>
-      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>430.28204703426798</v>
+      </c>
+      <c r="D30">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <f>AVERAGE(A12:E12)</f>
-        <v>30464.799999999999</v>
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>31457.4</v>
       </c>
       <c r="B31">
-        <f>STDEV(A12:E12)</f>
-        <v>366.29182355056741</v>
-      </c>
-      <c r="C31">
-        <f>STDEV(A12:E12)</f>
-        <v>366.29182355056741</v>
-      </c>
-      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>331.3352380897631</v>
+      </c>
+      <c r="D31">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <f>AVERAGE(A13:E13)</f>
-        <v>31007.200000000001</v>
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>32670</v>
       </c>
       <c r="B32">
-        <f>STDEV(A13:E13)</f>
-        <v>248.83468407760199</v>
-      </c>
-      <c r="C32">
-        <f>STDEV(A13:E13)</f>
-        <v>248.83468407760199</v>
-      </c>
-      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>456.06797738933614</v>
+      </c>
+      <c r="D32">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <f>AVERAGE(A14:E14)</f>
-        <v>31808</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>33139.599999999999</v>
       </c>
       <c r="B33">
-        <f>STDEV(A14:E14)</f>
-        <v>447.75607198562926</v>
-      </c>
-      <c r="C33">
-        <f>STDEV(A14:E14)</f>
-        <v>447.75607198562926</v>
-      </c>
-      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>401.44967306002377</v>
+      </c>
+      <c r="D33">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <f>AVERAGE(A15:E15)</f>
-        <v>32578.2</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33503.599999999999</v>
       </c>
       <c r="B34">
-        <f>STDEV(A15:E15)</f>
-        <v>693.75118017917634</v>
-      </c>
-      <c r="C34">
-        <f>STDEV(A15:E15)</f>
-        <v>693.75118017917634</v>
-      </c>
-      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>343.61699608721335</v>
+      </c>
+      <c r="D34">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <f>AVERAGE(A16:E16)</f>
-        <v>33265.199999999997</v>
+        <v>33575.4</v>
       </c>
       <c r="B35">
-        <f>STDEV(A16:E16)</f>
-        <v>608.9316053548215</v>
-      </c>
-      <c r="C35">
-        <f>STDEV(A16:E16)</f>
-        <v>608.9316053548215</v>
-      </c>
-      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>920.92162532975624</v>
+      </c>
+      <c r="D35">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <f>AVERAGE(A17:E17)</f>
-        <v>36858.199999999997</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34261.599999999999</v>
       </c>
       <c r="B36">
-        <f>STDEV(A17:E17)</f>
-        <v>1925.5042716130235</v>
-      </c>
-      <c r="C36">
-        <f>STDEV(A17:E17)</f>
-        <v>1925.5042716130235</v>
-      </c>
-      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>352.75181076785418</v>
+      </c>
+      <c r="D36">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3300,189 +3126,191 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>854.099999999999</v>
-      </c>
-      <c r="B2" s="2">
-        <v>907.55578246739105</v>
+      <c r="A2" s="1">
+        <v>609.20000000000005</v>
+      </c>
+      <c r="B2" s="1">
+        <v>499.06479901912502</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>921.2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>936.28351152842504</v>
+      <c r="A3" s="1">
+        <v>848.7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1153.7039874465099</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1209</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1605.5701925266301</v>
+      <c r="A4" s="1">
+        <v>1159.5999999999899</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1787.6774417383001</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1499.7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2316.2161798243201</v>
+      <c r="A5" s="1">
+        <v>1382</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2082.75950192046</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>1724</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2548.6577938063701</v>
+      <c r="A6" s="1">
+        <v>1585.29999999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2344.8074052403499</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>1915.0999999999899</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2649.20625981066</v>
+      <c r="A7" s="1">
+        <v>1768.5999999999899</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2443.8662242929699</v>
       </c>
       <c r="D7">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2124.0999999999899</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3080.86112161031</v>
+      <c r="A8" s="1">
+        <v>1992.29999999999</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3468.0639334461498</v>
       </c>
       <c r="D8">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>2320.6999999999898</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3472.22435159509</v>
+      <c r="A9" s="1">
+        <v>2195.3000000000002</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2860.8721593580499</v>
       </c>
       <c r="D9">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>2527.3999999999901</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4503.2082190522697</v>
+      <c r="A10" s="1">
+        <v>2380.4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2949.37192177927</v>
       </c>
       <c r="D10">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>2680.8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4009.8920675910899</v>
+      <c r="A11" s="1">
+        <v>2588.3000000000002</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3269.28924253269</v>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>2899.0999999999899</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3805.16250050901</v>
+      <c r="A12" s="1">
+        <v>2810.6999999999898</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4184.8502494868299</v>
       </c>
       <c r="D12">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>3106.5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4838.8555254047396</v>
+      <c r="A13" s="1">
+        <v>2951.6999999999898</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3587.8421556528901</v>
       </c>
       <c r="D13">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>3282.5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4923.7240553842903</v>
+      <c r="A14" s="1">
+        <v>3147.9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4572.0145338756301</v>
       </c>
       <c r="D14">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>3454</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5760.7323549545299</v>
+      <c r="A15" s="1">
+        <v>3354.9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3719.4225878165498</v>
       </c>
       <c r="D15">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>3622.1999999999898</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4938.2460332399296</v>
+      <c r="A16" s="1">
+        <v>3590.8999999999901</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7529.1134711969898</v>
       </c>
       <c r="D16">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>3516</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6650.1815839637002</v>
+      <c r="A17" s="1">
+        <v>3753.3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3767.2071433941601</v>
       </c>
       <c r="D17">
         <v>128</v>
